--- a/CaVaTeCo/form_z_deliverables.xlsx
+++ b/CaVaTeCo/form_z_deliverables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A8578D-C4F7-4560-AF31-B18AB7FE290E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181890EE-8168-43A6-B370-126DE85391BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,7 +1732,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7098,7 +7098,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7136,7 +7136,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="24">
-        <v>202401</v>
+        <v>202402</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="27" t="s">
